--- a/Clustering_Comparison.xlsx
+++ b/Clustering_Comparison.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3390906467781965</v>
+        <v>0.3556148714488295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9840781294679074</v>
+        <v>0.6447539848510143</v>
       </c>
       <c r="D2" t="n">
-        <v>54.14126210453686</v>
+        <v>78.74092527719183</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3209448664703713</v>
+        <v>0.389006925317933</v>
       </c>
       <c r="C3" t="n">
-        <v>1.049804200550446</v>
+        <v>0.6446918937135611</v>
       </c>
       <c r="D3" t="n">
-        <v>53.63295690688982</v>
+        <v>84.49317567386565</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3032963864461328</v>
+        <v>0.3581308616417095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7599537513219565</v>
+        <v>0.5166002826769005</v>
       </c>
       <c r="D4" t="n">
-        <v>38.29633527211954</v>
+        <v>70.38093959850012</v>
       </c>
     </row>
   </sheetData>

--- a/Clustering_Comparison.xlsx
+++ b/Clustering_Comparison.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3556148714488295</v>
+        <v>0.4085158964696709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6447539848510143</v>
+        <v>0.6075819913257917</v>
       </c>
       <c r="D2" t="n">
-        <v>78.74092527719183</v>
+        <v>103.6280296942458</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.389006925317933</v>
+        <v>0.386277312943316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6446918937135611</v>
+        <v>0.6461027069836289</v>
       </c>
       <c r="D3" t="n">
-        <v>84.49317567386565</v>
+        <v>95.45729263605205</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3581308616417095</v>
+        <v>0.3632027792671926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5166002826769005</v>
+        <v>0.6708522691868292</v>
       </c>
       <c r="D4" t="n">
-        <v>70.38093959850012</v>
+        <v>88.75940115944965</v>
       </c>
     </row>
   </sheetData>
